--- a/data/Output/ご馳走屋金山店/店舗情報まとめ.xlsx
+++ b/data/Output/ご馳走屋金山店/店舗情報まとめ.xlsx
@@ -1713,7 +1713,7 @@
         <v>6929.956803455723</v>
       </c>
       <c r="H2" t="n">
-        <v>1604285</v>
+        <v>3464.978401727862</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1739,7 +1739,7 @@
         <v>6712.685185185185</v>
       </c>
       <c r="H3" t="n">
-        <v>1087455</v>
+        <v>3356.342592592593</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1765,7 +1765,7 @@
         <v>10007.58426966292</v>
       </c>
       <c r="H4" t="n">
-        <v>593783.3333333334</v>
+        <v>3335.861423220973</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1791,7 +1791,7 @@
         <v>13043.58490566038</v>
       </c>
       <c r="H5" t="n">
-        <v>518482.5</v>
+        <v>3260.896226415094</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1817,7 +1817,7 @@
         <v>6874.736842105263</v>
       </c>
       <c r="H6" t="n">
-        <v>522480</v>
+        <v>3437.368421052632</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1843,7 +1843,7 @@
         <v>14872.85714285714</v>
       </c>
       <c r="H7" t="n">
-        <v>270686</v>
+        <v>2974.571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1895,7 +1895,7 @@
         <v>17781.71428571429</v>
       </c>
       <c r="H9" t="n">
-        <v>207453.3333333333</v>
+        <v>2963.619047619048</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1921,7 +1921,7 @@
         <v>9225</v>
       </c>
       <c r="H10" t="n">
-        <v>141450</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1947,7 +1947,7 @@
         <v>20948.22222222222</v>
       </c>
       <c r="H11" t="n">
-        <v>117833.75</v>
+        <v>2618.527777777778</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1973,7 +1973,7 @@
         <v>12827.14285714286</v>
       </c>
       <c r="H12" t="n">
-        <v>134685</v>
+        <v>3206.785714285714</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1999,7 +1999,7 @@
         <v>21524.21052631579</v>
       </c>
       <c r="H13" t="n">
-        <v>116845.7142857143</v>
+        <v>3074.887218045113</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2025,7 +2025,7 @@
         <v>9655.862068965518</v>
       </c>
       <c r="H14" t="n">
-        <v>93340</v>
+        <v>3218.620689655173</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2051,7 +2051,7 @@
         <v>22647.69230769231</v>
       </c>
       <c r="H15" t="n">
-        <v>65426.66666666666</v>
+        <v>2516.410256410256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2077,7 +2077,7 @@
         <v>11707.69230769231</v>
       </c>
       <c r="H16" t="n">
-        <v>76100</v>
+        <v>2926.923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2103,7 +2103,7 @@
         <v>10740</v>
       </c>
       <c r="H17" t="n">
-        <v>78760</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2129,7 +2129,7 @@
         <v>16873.15789473684</v>
       </c>
       <c r="H18" t="n">
-        <v>53431.66666666666</v>
+        <v>2812.192982456141</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2155,7 +2155,7 @@
         <v>30382.77777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>54689</v>
+        <v>3038.277777777778</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2181,7 +2181,7 @@
         <v>13316.66666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>39950</v>
+        <v>2663.333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2207,7 +2207,7 @@
         <v>28613.57142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>36417.27272727273</v>
+        <v>2601.233766233766</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2233,7 +2233,7 @@
         <v>13390</v>
       </c>
       <c r="H22" t="n">
-        <v>46865</v>
+        <v>3347.5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2259,7 +2259,7 @@
         <v>27903.63636363636</v>
       </c>
       <c r="H23" t="n">
-        <v>25578.33333333333</v>
+        <v>2325.30303030303</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2285,7 +2285,7 @@
         <v>26922.72727272727</v>
       </c>
       <c r="H24" t="n">
-        <v>17420.58823529412</v>
+        <v>1583.689839572193</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2311,7 +2311,7 @@
         <v>39908.88888888889</v>
       </c>
       <c r="H25" t="n">
-        <v>27629.23076923077</v>
+        <v>3069.91452991453</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2337,7 +2337,7 @@
         <v>14996.25</v>
       </c>
       <c r="H26" t="n">
-        <v>23994</v>
+        <v>2999.25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2363,7 +2363,7 @@
         <v>15255.71428571429</v>
       </c>
       <c r="H27" t="n">
-        <v>21358</v>
+        <v>3051.142857142857</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2389,7 +2389,7 @@
         <v>30130</v>
       </c>
       <c r="H28" t="n">
-        <v>9039</v>
+        <v>1506.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2415,7 +2415,7 @@
         <v>52833.33333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>9057.142857142857</v>
+        <v>1509.52380952381</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2441,7 +2441,7 @@
         <v>15715</v>
       </c>
       <c r="H30" t="n">
-        <v>18858</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2467,7 +2467,7 @@
         <v>38606.66666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>12191.57894736842</v>
+        <v>2031.929824561403</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2493,7 +2493,7 @@
         <v>28970</v>
       </c>
       <c r="H32" t="n">
-        <v>10863.75</v>
+        <v>1810.625</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2519,7 +2519,7 @@
         <v>19774</v>
       </c>
       <c r="H33" t="n">
-        <v>16478.33333333333</v>
+        <v>3295.666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2545,7 +2545,7 @@
         <v>64712</v>
       </c>
       <c r="H34" t="n">
-        <v>14067.82608695652</v>
+        <v>2813.565217391304</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2571,7 +2571,7 @@
         <v>50724</v>
       </c>
       <c r="H35" t="n">
-        <v>9393.333333333334</v>
+        <v>1878.666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2597,7 +2597,7 @@
         <v>3760</v>
       </c>
       <c r="H36" t="n">
-        <v>15040</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2623,7 +2623,7 @@
         <v>9495</v>
       </c>
       <c r="H37" t="n">
-        <v>9495</v>
+        <v>2373.75</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2649,7 +2649,7 @@
         <v>35727.5</v>
       </c>
       <c r="H38" t="n">
-        <v>9527.333333333334</v>
+        <v>2381.833333333333</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2675,7 +2675,7 @@
         <v>16702.5</v>
       </c>
       <c r="H39" t="n">
-        <v>9544.285714285714</v>
+        <v>2386.071428571428</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2701,7 +2701,7 @@
         <v>18145</v>
       </c>
       <c r="H40" t="n">
-        <v>9072.5</v>
+        <v>2268.125</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2727,7 +2727,7 @@
         <v>-5182.5</v>
       </c>
       <c r="H41" t="n">
-        <v>10365</v>
+        <v>2591.25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2753,7 +2753,7 @@
         <v>17042.5</v>
       </c>
       <c r="H42" t="n">
-        <v>11361.66666666667</v>
+        <v>2840.416666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2779,7 +2779,7 @@
         <v>19833.33333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>8500</v>
+        <v>2833.333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2805,7 +2805,7 @@
         <v>24513.33333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>10505.71428571429</v>
+        <v>3501.904761904762</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2831,7 +2831,7 @@
         <v>24220</v>
       </c>
       <c r="H45" t="n">
-        <v>9082.5</v>
+        <v>3027.5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2857,7 +2857,7 @@
         <v>38263.33333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>6377.222222222223</v>
+        <v>2125.740740740741</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2883,7 +2883,7 @@
         <v>20710</v>
       </c>
       <c r="H47" t="n">
-        <v>5177.5</v>
+        <v>2588.75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2909,7 +2909,7 @@
         <v>-7925</v>
       </c>
       <c r="H48" t="n">
-        <v>7925</v>
+        <v>3962.5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2935,7 +2935,7 @@
         <v>97670</v>
       </c>
       <c r="H49" t="n">
-        <v>5919.393939393939</v>
+        <v>2959.69696969697</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2961,7 +2961,7 @@
         <v>17400</v>
       </c>
       <c r="H50" t="n">
-        <v>6960</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2987,7 +2987,7 @@
         <v>20170</v>
       </c>
       <c r="H51" t="n">
-        <v>6723.333333333333</v>
+        <v>3361.666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3013,7 +3013,7 @@
         <v>35550</v>
       </c>
       <c r="H52" t="n">
-        <v>5078.571428571428</v>
+        <v>2539.285714285714</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3039,7 +3039,7 @@
         <v>16630</v>
       </c>
       <c r="H53" t="n">
-        <v>2375.714285714286</v>
+        <v>1187.857142857143</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3065,7 +3065,7 @@
         <v>-22925</v>
       </c>
       <c r="H54" t="n">
-        <v>7641.666666666667</v>
+        <v>3820.833333333333</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3091,7 +3091,7 @@
         <v>29220</v>
       </c>
       <c r="H55" t="n">
-        <v>2782.857142857143</v>
+        <v>1391.428571428571</v>
       </c>
     </row>
     <row r="56" spans="1:8">
